--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cx3cl1-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cx3cl1-Itgav.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>6.662215666666666</v>
+        <v>4.031031</v>
       </c>
       <c r="H2">
-        <v>19.986647</v>
+        <v>12.093093</v>
       </c>
       <c r="I2">
-        <v>0.4964100230945138</v>
+        <v>0.380357182622003</v>
       </c>
       <c r="J2">
-        <v>0.4964100230945138</v>
+        <v>0.380357182622003</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.535604</v>
+        <v>2.724001666666667</v>
       </c>
       <c r="N2">
-        <v>49.606812</v>
+        <v>8.172005</v>
       </c>
       <c r="O2">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="P2">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="Q2">
-        <v>110.163760026596</v>
+        <v>10.980535162385</v>
       </c>
       <c r="R2">
-        <v>991.4738402393639</v>
+        <v>98.82481646146501</v>
       </c>
       <c r="S2">
-        <v>0.1052614195420706</v>
+        <v>0.01763145900423589</v>
       </c>
       <c r="T2">
-        <v>0.1052614195420706</v>
+        <v>0.01763145900423589</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>6.662215666666666</v>
+        <v>4.031031</v>
       </c>
       <c r="H3">
-        <v>19.986647</v>
+        <v>12.093093</v>
       </c>
       <c r="I3">
-        <v>0.4964100230945138</v>
+        <v>0.380357182622003</v>
       </c>
       <c r="J3">
-        <v>0.4964100230945138</v>
+        <v>0.380357182622003</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>121.861892</v>
       </c>
       <c r="O3">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256352</v>
       </c>
       <c r="P3">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256351</v>
       </c>
       <c r="Q3">
-        <v>270.6234020173471</v>
+        <v>163.743021456884</v>
       </c>
       <c r="R3">
-        <v>2435.610618156124</v>
+        <v>1473.687193111956</v>
       </c>
       <c r="S3">
-        <v>0.2585805300288698</v>
+        <v>0.2629223737597594</v>
       </c>
       <c r="T3">
-        <v>0.2585805300288698</v>
+        <v>0.2629223737597594</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>6.662215666666666</v>
+        <v>4.031031</v>
       </c>
       <c r="H4">
-        <v>19.986647</v>
+        <v>12.093093</v>
       </c>
       <c r="I4">
-        <v>0.4964100230945138</v>
+        <v>0.380357182622003</v>
       </c>
       <c r="J4">
-        <v>0.4964100230945138</v>
+        <v>0.380357182622003</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.825229</v>
+        <v>15.419285</v>
       </c>
       <c r="N4">
-        <v>62.475687</v>
+        <v>46.257855</v>
       </c>
       <c r="O4">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="P4">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="Q4">
-        <v>138.742166905721</v>
+        <v>62.155615832835</v>
       </c>
       <c r="R4">
-        <v>1248.679502151489</v>
+        <v>559.400542495515</v>
       </c>
       <c r="S4">
-        <v>0.1325680735235735</v>
+        <v>0.09980334985800773</v>
       </c>
       <c r="T4">
-        <v>0.1325680735235735</v>
+        <v>0.09980334985800773</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>15.295603</v>
       </c>
       <c r="I5">
-        <v>0.3798981709375522</v>
+        <v>0.4810839099297969</v>
       </c>
       <c r="J5">
-        <v>0.3798981709375522</v>
+        <v>0.4810839099297969</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.535604</v>
+        <v>2.724001666666667</v>
       </c>
       <c r="N5">
-        <v>49.606812</v>
+        <v>8.172005</v>
       </c>
       <c r="O5">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="P5">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="Q5">
-        <v>84.30734471640399</v>
+        <v>13.88841602155722</v>
       </c>
       <c r="R5">
-        <v>758.7661024476359</v>
+        <v>124.995744194015</v>
       </c>
       <c r="S5">
-        <v>0.08055562719109181</v>
+        <v>0.02230064692627168</v>
       </c>
       <c r="T5">
-        <v>0.08055562719109183</v>
+        <v>0.02230064692627168</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>15.295603</v>
       </c>
       <c r="I6">
-        <v>0.3798981709375522</v>
+        <v>0.4810839099297969</v>
       </c>
       <c r="J6">
-        <v>0.3798981709375522</v>
+        <v>0.4810839099297969</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>121.861892</v>
       </c>
       <c r="O6">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256352</v>
       </c>
       <c r="P6">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256351</v>
       </c>
       <c r="Q6">
         <v>207.1056800956529</v>
@@ -818,10 +818,10 @@
         <v>1863.951120860876</v>
       </c>
       <c r="S6">
-        <v>0.1978893773853699</v>
+        <v>0.3325498488142692</v>
       </c>
       <c r="T6">
-        <v>0.1978893773853699</v>
+        <v>0.3325498488142692</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>15.295603</v>
       </c>
       <c r="I7">
-        <v>0.3798981709375522</v>
+        <v>0.4810839099297969</v>
       </c>
       <c r="J7">
-        <v>0.3798981709375522</v>
+        <v>0.4810839099297969</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.825229</v>
+        <v>15.419285</v>
       </c>
       <c r="N7">
-        <v>62.475687</v>
+        <v>46.257855</v>
       </c>
       <c r="O7">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="P7">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="Q7">
-        <v>106.178145056029</v>
+        <v>78.61575396795166</v>
       </c>
       <c r="R7">
-        <v>955.603305504261</v>
+        <v>707.541785711565</v>
       </c>
       <c r="S7">
-        <v>0.1014531663610905</v>
+        <v>0.126233414189256</v>
       </c>
       <c r="T7">
-        <v>0.1014531663610905</v>
+        <v>0.126233414189256</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.660042</v>
+        <v>1.468449333333333</v>
       </c>
       <c r="H8">
-        <v>4.980126</v>
+        <v>4.405348</v>
       </c>
       <c r="I8">
-        <v>0.1236918059679339</v>
+        <v>0.1385589074482</v>
       </c>
       <c r="J8">
-        <v>0.123691805967934</v>
+        <v>0.1385589074482</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.535604</v>
+        <v>2.724001666666667</v>
       </c>
       <c r="N8">
-        <v>49.606812</v>
+        <v>8.172005</v>
       </c>
       <c r="O8">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="P8">
-        <v>0.2120453146491552</v>
+        <v>0.04635500474236593</v>
       </c>
       <c r="Q8">
-        <v>27.449797135368</v>
+        <v>4.000058431415555</v>
       </c>
       <c r="R8">
-        <v>247.048174218312</v>
+        <v>36.00052588274</v>
       </c>
       <c r="S8">
-        <v>0.02622826791599281</v>
+        <v>0.006422898811858355</v>
       </c>
       <c r="T8">
-        <v>0.02622826791599281</v>
+        <v>0.006422898811858355</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.660042</v>
+        <v>1.468449333333333</v>
       </c>
       <c r="H9">
-        <v>4.980126</v>
+        <v>4.405348</v>
       </c>
       <c r="I9">
-        <v>0.1236918059679339</v>
+        <v>0.1385589074482</v>
       </c>
       <c r="J9">
-        <v>0.123691805967934</v>
+        <v>0.1385589074482</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>121.861892</v>
       </c>
       <c r="O9">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256352</v>
       </c>
       <c r="P9">
-        <v>0.5209011059384622</v>
+        <v>0.6912512390256351</v>
       </c>
       <c r="Q9">
-        <v>67.43195297315468</v>
+        <v>59.64933802204622</v>
       </c>
       <c r="R9">
-        <v>606.8875767583921</v>
+        <v>536.8440421984161</v>
       </c>
       <c r="S9">
-        <v>0.06443119852422247</v>
+        <v>0.09577901645160659</v>
       </c>
       <c r="T9">
-        <v>0.06443119852422248</v>
+        <v>0.09577901645160658</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.660042</v>
+        <v>1.468449333333333</v>
       </c>
       <c r="H10">
-        <v>4.980126</v>
+        <v>4.405348</v>
       </c>
       <c r="I10">
-        <v>0.1236918059679339</v>
+        <v>0.1385589074482</v>
       </c>
       <c r="J10">
-        <v>0.123691805967934</v>
+        <v>0.1385589074482</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.825229</v>
+        <v>15.419285</v>
       </c>
       <c r="N10">
-        <v>62.475687</v>
+        <v>46.257855</v>
       </c>
       <c r="O10">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="P10">
-        <v>0.2670535794123827</v>
+        <v>0.2623937562319988</v>
       </c>
       <c r="Q10">
-        <v>34.570754799618</v>
+        <v>22.64243877872667</v>
       </c>
       <c r="R10">
-        <v>311.136793196562</v>
+        <v>203.78194900854</v>
       </c>
       <c r="S10">
-        <v>0.03303233952771868</v>
+        <v>0.03635699218473509</v>
       </c>
       <c r="T10">
-        <v>0.03303233952771868</v>
+        <v>0.03635699218473509</v>
       </c>
     </row>
   </sheetData>
